--- a/Data/Map/false_negatives.xlsx
+++ b/Data/Map/false_negatives.xlsx
@@ -387,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1033,6 +1033,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>39.852041999999997</v>
+      </c>
+      <c r="B23" s="2">
+        <v>-83.002331999999996</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2">
+        <v>102.09943989999999</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
